--- a/data-raw/Indikatorbeskrivelser.xlsx
+++ b/data-raw/Indikatorbeskrivelser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\SKDE\Nasjonalt servicemiljø\Resultattjenester\Sykehusviser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKDEinterakt\qmongrdata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Indikatorbeskrivelser" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indikatorbeskrivelser!$A$1:$I$57</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="259">
   <si>
     <t>IndID</t>
   </si>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t>KomplSvelging3mnd</t>
-  </si>
-  <si>
-    <t>lav</t>
   </si>
   <si>
     <t xml:space="preserve">Ubehag ved svelging av mat og drikke etter fremre nakkekirurgi (hudåpning på halsen), , ikke-myelopati. </t>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>NDIendr12mnd35pstKI</t>
-  </si>
-  <si>
-    <t>hoy</t>
   </si>
   <si>
     <t>NDI-endring, 12 måneder etter fremre nakkekirurgi (hudåpning på halsen).</t>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>ind1_50pstlekkasjeredusjon</t>
-  </si>
-  <si>
-    <t>høy</t>
   </si>
   <si>
     <t xml:space="preserve">Andel pasienter med ? 50% reduksjon av lekkasje i testperiode. </t>
@@ -1640,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,1300 +1682,1300 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
-        <v>0.17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>0.04</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="G4" t="s">
+        <v>0.17</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F6">
-        <v>0.04</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>164</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>169</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>172</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>0.9</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>175</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>176</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="E14">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
-        <v>0.7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="E15">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
+        <v>0.25</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="E16">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>0.04</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
+        <v>0.4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>239</v>
+      </c>
+      <c r="I17" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>95</v>
+        <v>239</v>
+      </c>
+      <c r="I18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
+        <v>0.4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>91</v>
+        <v>247</v>
+      </c>
+      <c r="I19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="E20">
         <v>0.5</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="I20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="E21">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F21">
-        <v>0.3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="E22">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="F22">
-        <v>0.3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
+        <v>0.04</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>91</v>
+        <v>187</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
+        <v>0.6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>91</v>
+        <v>213</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
+        <v>0.08</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="E25">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F25">
-        <v>0.3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
+        <v>0.08</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="E26">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
+        <v>0.08</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="E27">
-        <v>0.94</v>
+        <v>0.03</v>
       </c>
       <c r="F27">
-        <v>0.94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
+        <v>0.05</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="E28">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>0.79</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
+        <v>0.06</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="E29">
-        <v>0.94</v>
+        <v>0.05</v>
       </c>
       <c r="F29">
-        <v>0.94</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>138</v>
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="E30">
-        <v>0.79</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
-        <v>0.79</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
+        <v>0.3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="E31">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="F31">
-        <v>0.79</v>
-      </c>
-      <c r="G31" t="s">
-        <v>74</v>
+        <v>0.6</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="I31" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32">
+        <v>0.94</v>
+      </c>
+      <c r="F32">
+        <v>0.94</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32">
-        <v>0.59</v>
-      </c>
-      <c r="F32">
-        <v>0.59</v>
-      </c>
-      <c r="G32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s">
-        <v>152</v>
-      </c>
       <c r="I32" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="E33">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="F33">
-        <v>0.59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>74</v>
+        <v>0.79</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E34">
-        <v>0.8</v>
+        <v>0.94</v>
       </c>
       <c r="F34">
-        <v>0.8</v>
+        <v>0.94</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" t="s">
-        <v>164</v>
+        <v>134</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="E35">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="F35">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="I35" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E36">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="F36">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E37">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="F37">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="I37" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="F38">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="I38" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="E39">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F39">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="F40">
-        <v>0.04</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>190</v>
-      </c>
-      <c r="I40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F41">
-        <v>0.08</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F42">
-        <v>0.08</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
+        <v>0.3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="E43">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F43">
-        <v>0.08</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
+        <v>0.5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>119</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="F44">
-        <v>0.05</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
+        <v>0.95</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>195</v>
+        <v>77</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>0.04</v>
       </c>
       <c r="F45">
-        <v>0.06</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
+        <v>0.04</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="E46">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F46">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
+        <v>0.3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>208</v>
-      </c>
-      <c r="I46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>0.3</v>
@@ -2989,86 +2983,86 @@
       <c r="F47">
         <v>0.3</v>
       </c>
-      <c r="G47" t="s">
-        <v>74</v>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>216</v>
-      </c>
-      <c r="I47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="E48">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F48">
-        <v>0.6</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>216</v>
-      </c>
-      <c r="I48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="E49">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F49">
-        <v>0.6</v>
-      </c>
-      <c r="G49" t="s">
-        <v>74</v>
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>216</v>
-      </c>
-      <c r="I49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="E50">
         <v>0.3</v>
@@ -3076,217 +3070,217 @@
       <c r="F50">
         <v>0.3</v>
       </c>
-      <c r="G50" t="s">
-        <v>74</v>
+      <c r="G50">
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>228</v>
-      </c>
-      <c r="I50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>0.3</v>
       </c>
       <c r="F51">
-        <v>0.25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>74</v>
+        <v>0.3</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>233</v>
-      </c>
-      <c r="I51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
-      </c>
-      <c r="E52">
-        <v>0.5</v>
-      </c>
-      <c r="F52">
-        <v>0.4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" t="s">
-        <v>236</v>
-      </c>
-      <c r="I52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E53">
-        <v>0.5</v>
-      </c>
-      <c r="F53">
-        <v>0.4</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s">
-        <v>242</v>
+        <v>47</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>246</v>
-      </c>
-      <c r="E54">
-        <v>0.5</v>
-      </c>
-      <c r="F54">
-        <v>0.4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s">
-        <v>242</v>
+        <v>52</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E55">
-        <v>0.5</v>
-      </c>
-      <c r="F55">
-        <v>0.4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s">
-        <v>250</v>
+        <v>57</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56">
-        <v>0.5</v>
-      </c>
-      <c r="F56">
-        <v>0.4</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
-      <c r="H56" t="s">
-        <v>255</v>
+        <v>62</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I56" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57">
-        <v>0.1</v>
-      </c>
-      <c r="F57">
-        <v>0.1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>260</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Indikatorbeskrivelser.xlsx
+++ b/data-raw/Indikatorbeskrivelser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKDEinterakt\qmongrdata\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\qmongrdata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
         <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
       </c>
       <c r="C40" t="s">
         <v>107</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
         <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
         <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
       </c>
       <c r="C42" t="s">
         <v>113</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
         <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>117</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
         <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>101</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
         <v>68</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>101</v>

--- a/data-raw/Indikatorbeskrivelser.xlsx
+++ b/data-raw/Indikatorbeskrivelser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\qmongrdata\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKDEinterakt\qmongrdata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
         <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
         <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>107</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
         <v>109</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
         <v>112</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
       </c>
       <c r="C42" t="s">
         <v>113</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
         <v>116</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
       </c>
       <c r="C43" t="s">
         <v>117</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
         <v>79</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
         <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
@@ -3053,10 +3053,10 @@
     </row>
     <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
       </c>
       <c r="C50" t="s">
         <v>101</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
       </c>
       <c r="C51" t="s">
         <v>101</v>

--- a/data-raw/Indikatorbeskrivelser.xlsx
+++ b/data-raw/Indikatorbeskrivelser.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKDEinterakt\qmongrdata\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnfinn/repo/qmongrdata/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BD2B63-833A-3449-89F1-D891E74FBFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indikatorbeskrivelser" sheetId="1" r:id="rId1"/>
@@ -827,7 +828,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1313,48 +1314,48 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1631,27 +1632,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="199.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="199.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>236</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>241</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>244</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>254</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>193</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>207</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -2732,12 +2733,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
         <v>68</v>
-      </c>
-      <c r="B39" t="s">
-        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
@@ -2761,12 +2762,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
       </c>
       <c r="C40" t="s">
         <v>107</v>
@@ -2790,12 +2791,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
         <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>107</v>
@@ -2819,12 +2820,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
         <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
       </c>
       <c r="C42" t="s">
         <v>113</v>
@@ -2848,12 +2849,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
         <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>117</v>
@@ -2877,12 +2878,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -2906,12 +2907,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
         <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
@@ -2935,12 +2936,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
@@ -2964,12 +2965,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
@@ -2993,12 +2994,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
@@ -3022,12 +3023,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
@@ -3051,12 +3052,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
         <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>101</v>
@@ -3080,12 +3081,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
         <v>68</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>101</v>
@@ -3109,7 +3110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>

--- a/data-raw/Indikatorbeskrivelser.xlsx
+++ b/data-raw/Indikatorbeskrivelser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnfinn/repo/qmongrdata/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BD2B63-833A-3449-89F1-D891E74FBFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F77EB8-C1E7-AB49-BF9B-85DE7ED27D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="301">
   <si>
     <t>IndID</t>
   </si>
@@ -823,6 +823,132 @@
   <si>
     <t xml:space="preserve">Det er ønskelig at færrest mulig pasienter er misfornøyde med behandlingen de får. Måltallet er at mindre enn 10% av pasientene rapporterer at de er litt, noe eller meget misfornøyde med behandlingen de har fått. 
 </t>
+  </si>
+  <si>
+    <t>IndDGrev</t>
+  </si>
+  <si>
+    <t>Ind24t</t>
+  </si>
+  <si>
+    <t>Ind48t</t>
+  </si>
+  <si>
+    <t>Indprotese</t>
+  </si>
+  <si>
+    <t>Indsement</t>
+  </si>
+  <si>
+    <t>Ind1aar</t>
+  </si>
+  <si>
+    <t>Ind30dDod</t>
+  </si>
+  <si>
+    <t>IndDGpo</t>
+  </si>
+  <si>
+    <t>IndDGph</t>
+  </si>
+  <si>
+    <t>IndDGpt</t>
+  </si>
+  <si>
+    <t>IndDGp</t>
+  </si>
+  <si>
+    <t>Dekningsgrad alle reoperasjoner</t>
+  </si>
+  <si>
+    <t>Operasjon innen 24 timer (tilstrebes)</t>
+  </si>
+  <si>
+    <t>Operasjon innen 48 timer</t>
+  </si>
+  <si>
+    <t>Protese ved dislokerte lårhalsbrudd</t>
+  </si>
+  <si>
+    <t>Sementert stamme ved bruk av protese</t>
+  </si>
+  <si>
+    <t>Ikke-reopererte proteser innen et år</t>
+  </si>
+  <si>
+    <t>30 dagers overlevelse</t>
+  </si>
+  <si>
+    <t>Dekningsgrad primær osteosyntese</t>
+  </si>
+  <si>
+    <t>Dekningsgrad primær hemiprotese</t>
+  </si>
+  <si>
+    <t>Dekningsgrad primær totalprotese</t>
+  </si>
+  <si>
+    <t>Dekningsgrad av primære hoftebrudd</t>
+  </si>
+  <si>
+    <t>Dekningsgrad gir et mål på hvor stor andel av reoperasjoner etter hoftebrudd som blir meldt til registeret sammenlignet med Norsk pasientregister</t>
+  </si>
+  <si>
+    <t>Det er gode holdepunkter for at hoftebrudd bør opereres innen 24 timer etter bruddtidspunktet</t>
+  </si>
+  <si>
+    <t>Alle hoftebrudd bør senest opereres innen 48 timer etter bruddtidspunktet for å redusere dødelighet og fare for medisinske komplikasjoner</t>
+  </si>
+  <si>
+    <t>Lårhalsbrudd hos pasienter over 70 år som er dislokerte (ute av stilling) bør opereres med en protese for å redusere risiko for reoperasjon og for å bedre funksjon</t>
+  </si>
+  <si>
+    <t>Alle hoftebruddpasienter over 70 år som skal opereres med en protese bør få lårbensprotesen sementert for å redusere risiko for reoperasjon</t>
+  </si>
+  <si>
+    <t>En reoperasjon er en betydelig belastning for en hoftebruddpasient og andelen reoperasjon er derfor et viktig mål for kvaliteten av behandlingen</t>
+  </si>
+  <si>
+    <t>30 dagers overlevelse er en hyppig brukt resultatindikator for behandling av hoftebrudd</t>
+  </si>
+  <si>
+    <t>Dekningsgrad gir et mål på hvor stor andel av primære osteosynteser som blir meldt til registeret sammenlignet med Norsk pasientregister</t>
+  </si>
+  <si>
+    <t>Dekningsgrad gir et mål på hvor stor andel av primære hemiproteser som blir meldt til registeret sammenlignet med Norsk pasientregister</t>
+  </si>
+  <si>
+    <t>Dekningsgrad gir et mål på hvor stor andel av primære totalproteser som blir meldt til registeret sammenlignet med Norsk pasientregister</t>
+  </si>
+  <si>
+    <t>Dekningsgrad gir et mål på hvor stor andel av primære hoftebruddsoperasjoner som blir meldt til registeret sammenlignet med Norsk pasientregister</t>
+  </si>
+  <si>
+    <t>Dekningsgrad for Norsk Hoftebruddregister (NHBR) er definert som andelen av de pasienter som sykehuset rapporterte til Norsk pasientregister (NPR) som sykehuset også meldte til NHBR. Vi har definert ?90 % som svært god måloppnåelse, ?80 % som god måloppnåelse.|En del usikkerhet er knyttet til beregning av dekningsgrad. Det er viktig at sykehusene rapporterer riktige diagnosekoder og prosedyrekoder til NPR for at riktige operasjoner skal bli koblet til NHBR. For primæroperasjoner er dette mindre problematisk, men for reoperasjoner er det en større usikkerhet da flere ulike prosedyrekoder kan benyttes. Det finnes ingen klare retningslinjer for hvilke prosedyrekoder som kirurgene skal benytte ved for eksempel bløtdelsrevisjoner etter infeksjon.|NPR mangler spesifisering av legemsside og dette medfører en usikkerhet i analysene. Totalproteser i hofte implanteres også av andre årsaker enn hoftebrudd. Pasienter kan ha totalproteser i begge hofter og en kan ut fra data i NPR ikke avgjøre hvilken protese som er reoperert. Dersom totalprotesen som er reoperert ikke er implantert som følge av hoftebrudd skal reoperasjonen heller ikke være registrert i NHBR. Det totale antallet reopererte totalproteser i NPR er altså høyere enn antallet reopererte totalproteser implantert etter hoftebrudd. Dette vil gi en feilaktig lavere dekningsgrad for totalproteser i NHBR.|Dekningsgradsanalyser var sist utført for operasjoner utført i perioden 2015-2016.</t>
+  </si>
+  <si>
+    <t>Denne kvalitetsindikatoren er definert som andel pasienter med akutt hoftebrudd som ble operert innen 24 timer etter bruddtidspunktet.|Det er gode holdepunkter for å anbefale at alle hoftebrudd bør tilstrebes operert innen 24 timer og senest innen 48 timer. Vi har definert &gt;90 % som svært god måloppnåelse og &gt;80 % som god måloppnåelse for operasjon innen 48 timer. For operasjon innen 24 timer er &gt;80 % definert som svært god måloppnåelse og &gt;60 % som god måloppnåelse.|Foreløpig vil tid fra brudd til operasjon bli brukt som ventetid. Det jobbes med å innhente innleggelsestidspunkt i sykehus. Ventetid fra innleggelse til operasjon kan kanskje være en mer riktig prosessindikator.|På landsbasis er det meget god måloppnåelse, men det er store variasjoner mellom de enkelte sykehusene. Det er en tendens til at de store universitetssykehusene har større problemer med å få operert pasientene innen de anbefalte 48 timer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denne kvalitetsindikatoren er definert som andel pasienter med akutt hoftebrudd som ble operert innen 48 timer etter bruddtidspunktet.|Det er gode holdepunkter for å anbefale at alle hoftebrudd bør tilstrebes operert innen 24 timer og senest innen 48 timer. Vi har definert &gt;90 % som svært god måloppnåelse og &gt;80 % som god måloppnåelse for operasjon innen 48 timer. For operasjon innen 24 timer er &gt;80 % definert som svært god måloppnåelse og &gt;60 % som god måloppnåelse.|Foreløpig vil tid fra brudd til operasjon bli brukt som ventetid. Det jobbes med å innhente innleggelsestidspunkt i sykehus. Ventetid fra innleggelse til operasjon kan kanskje være en mer riktig prosessindikator.|På landsbasis er det meget god måloppnåelse, men det er store variasjoner mellom de enkelte sykehusene. Det er en tendens til at de store universitetssykehusene har større problemer med å få operert pasientene innen de anbefalte 48 timer. </t>
+  </si>
+  <si>
+    <t>Det er gode holdepunkter for å kunne si at dislokerte lårhalsbrudd hos pasienter over 70 år bør opereres med protese. Protesevalg (hemiprotese eller totalprotese) bør avgjøres utfra pasientens biologiske alder og funksjonelle krav. Indikatoren viser andel av pasienter med dislokerte lårhalsbrudd over 70 år som er operert med protese.|I 2017 oppnådde alle sykehus i Norge god måloppnåelse og nesten alle sykehus meget god måloppnåelse på denne indikatoren.</t>
+  </si>
+  <si>
+    <t>Det er god dokumentasjon for å si at det ved hoftebruddpasienter over 70 år bør benyttes sementerte stammer. Bruk av usementerte stammer reduserer risiko for nye brudd rundt implantatene og dermed fare for reoperasjoner. Det har vært en viss bekymring for økt dødelighet grunnet sement implantasjons syndrom ved bruk av sementerte stammer, men flere studier viser nå at det kun foreligger en marginal økning i dødelighet selve operasjonsdagen og dagen etter operasjonen. Risiko er høyest for de skrøpeligste pasientene (ASA 3-5). Med godt samarbeid mellom kirurg og anestesilege kan dødeligheten reduseres.|De fleste sykehus i Norge i dag bruker sementerte stammer ved protese for hoftebrudd hos pasienter &gt; 70 år. Noen få sykehus bruker utelukkende usementerte stammer, mens noen sykehus virker å ha en differensiert behandling. Dette kan skyldes ulike preferanser hos ulike ved disse sykehusene. Det kan også skyldes differensiert behandling ved at de sprekeste pasientene opereres med sementert stamme, mens de skrøpeligste pasientene opereres med usementert stamme for å redusere risiko for sement implantasjons syndrom.</t>
+  </si>
+  <si>
+    <t>Andelen reoperasjoner er et mål på kvaliteten av behandlingen. En reoperasjon kan være en betydelig belastning for hoftebruddpasientene og medfører både øket mortalitet og morbiditet. Pasientene har i perioden før en reoperasjon oftest smerter og økte problemer i det daglige. Et viktig mål for behandling av hoftebrudd er derfor å unngå reoperasjoner. De fleste reoperasjoner for hoftebrudd skjer i løpet av det første året etter primæroperasjonen.|Andelen reoperasjoner innen 1 år postoperativt må imidlertid sees i sammenheng med rapporteringsgraden av reoperasjoner. Dersom rapportering av reoperasjoner er dårlig ved et sykehus vil dette medføre en falsk lav andel reopererte pasienter. Andelen reoperasjoner kan også ses i sammenheng med behandlingsmetode (kvalitetsindikatorer  for protese ved dislokerte lårhalsbrudd og sementert stamme ved bruk av protese).|De fleste sykehus har mindre enn 10 % reoperasjoner første året etter primæroperasjon og oppnår dermed god måloppnåelse.</t>
+  </si>
+  <si>
+    <t>30 dagers overlevelse er en hyppig brukt resultatindikator for behandling av hoftebrudd. Det er imidlertid mange ulike faktorer som kan påvirke overlevelsen og som det er umulig å korrigere godt for. 30 dagers overlevelse er selvsagt også avhengig av hendelser etter at pasienten er utskrevet fra sykehuset. Tilfeldigheter eller små forskjeller vil kunne se store ut når sykehusvise resultater sammenlignes.|30 dagers overlevelse er ved de fleste sykehus &gt;90 %.</t>
+  </si>
+  <si>
+    <t>Dekningsgrad for Norsk Hoftebruddregister (NHBR) er definert som andelen av de pasienter som sykehuset rapporterte til Norsk pasientregister (NPR) som sykehuset også meldte til NHBR. Vi har definert &gt;90 % som svært god måloppnåelse, &gt;80 % som god måloppnåelse.|En del usikkerhet er knyttet til beregning av dekningsgrad. Det er viktig at sykehusene rapporterer riktige diagnosekoder og prosedyrekoder til NPR for at riktige operasjoner skal bli koblet til NHBR. For primæroperasjoner er dette mindre problematisk, men for reoperasjoner er det en større usikkerhet da flere ulike prosedyrekoder kan benyttes. Det finnes ingen klare retningslinjer for hvilke prosedyrekoder som kirurgene skal benytte ved for eksempel bløtdelsrevisjoner etter infeksjon.|NPR mangler spesifisering av legemsside og dette medfører en usikkerhet i analysene. Totalproteser i hofte implanteres også av andre årsaker enn hoftebrudd. Pasienter kan ha totalproteser i begge hofter og en kan ut fra data i NPR ikke avgjøre hvilken protese som er reoperert. Dersom totalprotesen som er reoperert ikke er implantert som følge av hoftebrudd skal reoperasjonen heller ikke være registrert i NHBR. Det totale antallet reopererte totalproteser i NPR er altså høyere enn antallet reopererte totalproteser implantert etter hoftebrudd. Dette vil gi en feilaktig lavere dekningsgrad for totalproteser i NHBR.|Dekningsgradsanalyser var sist utført for operasjoner utført i perioden 2017-2018.</t>
+  </si>
+  <si>
+    <t>hoftebrudd</t>
   </si>
 </sst>
 </file>
@@ -1633,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3284,6 +3410,325 @@
         <v>64</v>
       </c>
     </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58">
+        <v>0.9</v>
+      </c>
+      <c r="F58">
+        <v>0.8</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>281</v>
+      </c>
+      <c r="I58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59">
+        <v>0.8</v>
+      </c>
+      <c r="F59">
+        <v>0.6</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>282</v>
+      </c>
+      <c r="I59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60">
+        <v>0.9</v>
+      </c>
+      <c r="F60">
+        <v>0.8</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>283</v>
+      </c>
+      <c r="I60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61">
+        <v>0.9</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>284</v>
+      </c>
+      <c r="I61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62">
+        <v>0.9</v>
+      </c>
+      <c r="F62">
+        <v>0.8</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63">
+        <v>0.9</v>
+      </c>
+      <c r="F63">
+        <v>0.8</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64">
+        <v>0.9</v>
+      </c>
+      <c r="F64">
+        <v>0.8</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65">
+        <v>0.9</v>
+      </c>
+      <c r="F65">
+        <v>0.8</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>288</v>
+      </c>
+      <c r="I65" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>278</v>
+      </c>
+      <c r="D66" t="s">
+        <v>267</v>
+      </c>
+      <c r="E66">
+        <v>0.9</v>
+      </c>
+      <c r="F66">
+        <v>0.8</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67">
+        <v>0.9</v>
+      </c>
+      <c r="F67">
+        <v>0.8</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>290</v>
+      </c>
+      <c r="I67" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68">
+        <v>0.9</v>
+      </c>
+      <c r="F68">
+        <v>0.8</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>291</v>
+      </c>
+      <c r="I68" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/Indikatorbeskrivelser.xlsx
+++ b/data-raw/Indikatorbeskrivelser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnfinn/repo/qmongrdata/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\repo\qmongrdata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F77EB8-C1E7-AB49-BF9B-85DE7ED27D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8969A-BB45-471B-AE3D-A423A04E1391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indikatorbeskrivelser" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indikatorbeskrivelser!$A$1:$I$57</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="375">
   <si>
     <t>IndID</t>
   </si>
@@ -950,12 +950,283 @@
   <si>
     <t>hoftebrudd</t>
   </si>
+  <si>
+    <t>lymfoid1</t>
+  </si>
+  <si>
+    <t>lymfoid2</t>
+  </si>
+  <si>
+    <t>lymfoid3</t>
+  </si>
+  <si>
+    <t>lymfoid4</t>
+  </si>
+  <si>
+    <t>lymfoid5</t>
+  </si>
+  <si>
+    <t>lymfoid6</t>
+  </si>
+  <si>
+    <t>lymfoid</t>
+  </si>
+  <si>
+    <t>Dekningsgrad: Utredning</t>
+  </si>
+  <si>
+    <t>Diagnostisering av non-Hodgkin lymfom</t>
+  </si>
+  <si>
+    <t>Angitt stadium v/ non-Hodgkin lymfom</t>
+  </si>
+  <si>
+    <t>Flowcytometri v/ kronisk lymfatisk leukemi</t>
+  </si>
+  <si>
+    <t>Biopsi v/ myelomatose</t>
+  </si>
+  <si>
+    <t>FISH v/ myelomatose</t>
+  </si>
+  <si>
+    <t>kiB</t>
+  </si>
+  <si>
+    <t>kiC</t>
+  </si>
+  <si>
+    <t>kiC1</t>
+  </si>
+  <si>
+    <t>kiC2</t>
+  </si>
+  <si>
+    <t>kiD</t>
+  </si>
+  <si>
+    <t>kiE</t>
+  </si>
+  <si>
+    <t>kiF</t>
+  </si>
+  <si>
+    <t>kiG</t>
+  </si>
+  <si>
+    <t>kiH</t>
+  </si>
+  <si>
+    <t>kiJ</t>
+  </si>
+  <si>
+    <t>kiK</t>
+  </si>
+  <si>
+    <t>kiA</t>
+  </si>
+  <si>
+    <t>Reperfusjonsbehandling ved STEMI</t>
+  </si>
+  <si>
+    <t>Reperfusjonsbehandling innen anbefalt tid ved STEMI</t>
+  </si>
+  <si>
+    <t>Trombolyse innen anbefalt tid</t>
+  </si>
+  <si>
+    <t>Primær PCI innen anbefalt tid</t>
+  </si>
+  <si>
+    <t>Invasivt utredet ved NSTEMI</t>
+  </si>
+  <si>
+    <t>Invasivt utredet innen 72 timer ved NSTEMI</t>
+  </si>
+  <si>
+    <t>Utskrevet med antitrombotisk behandling</t>
+  </si>
+  <si>
+    <t>Utskrevet med lipidsenkende medikament</t>
+  </si>
+  <si>
+    <t>Ejeksjonsfraksjon (EF) målt</t>
+  </si>
+  <si>
+    <t>Utskrevet med betablokker hvis indikasjon</t>
+  </si>
+  <si>
+    <t>ACE-hemmer/AII-antagonist hvis indikasjon</t>
+  </si>
+  <si>
+    <t>Dekningsgrad</t>
+  </si>
+  <si>
+    <t>hjerteinfarkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klinisk utredningsskjema for lymfoide maligniteter er viktig for å vurdere blant annet utbredelse og antatt forløp. </t>
+  </si>
+  <si>
+    <t>I følge både pakkeforløp og handlingsprogram skal alle lymfomdiagnoser stilles etter vurdering ved et universitetssykehuslaboratorium.</t>
+  </si>
+  <si>
+    <t>Stadium viser hvor utbredt sykdommen er og er en viktig prognostisk faktor.</t>
+  </si>
+  <si>
+    <t>Ved diagnostisering av kronisk lymfatisk leukemi anbefales det å bruke undersøkelsen flowcytometri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handlingsprogrammet anbefaler biopsi som undersøkelsesmetode for fastsetting av myelomatose. </t>
+  </si>
+  <si>
+    <t>Handlingsprogrammet anbefaler FISH som standardmetode for cytogenetisk undersøkelse ved diagnostisering av myelomatose.</t>
+  </si>
+  <si>
+    <t>Figuren viser dekningsgrad av primærutredning for 2018 og 2019. Informasjon om morfologi, basis for diagnosen, diagnosedato, tilhørende sykehus etc. hentes fra patologibesvarelsen der komplettheten ligger på 97,35 prosent. Stadium, prognostiske faktorer og planlagt behandling er derimot informasjon registeret kun får via utredningsmelding og registeret har derfor hatt høy fokus på å forbedre rapporteringen. Høy grad av måloppnåelse for denne kvalitetsindikatoren er 80% eller mer.</t>
+  </si>
+  <si>
+    <t>Figuren viser andelen av pasienter diagnostisert med non-Hodgkin lymfom i 2019 som har fått diagnosen stilt ved et universitetssykehus, eller ved konsultasjon fra et universitetssykehus. Høy grad av måloppnåelse for denne kvalitetsindikatoren er over 95 prosent. Noen pasienter får ikke diagnosen stilt ved hjelp av anbefalt konsultasjon med universitetssykehus med erfaring, kompetanse og nødvendig utstyr for immunhistokjemisk og molekylær lymfomdiagnostikk. Registeret vil se på de ulike årsakene til dette og oppfordrer alle laboratorier til å følge retningslinjene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figuren viser andelen av pasienter diagnostisert med non-Hodgkin lymfom der stadium er oppgitt på utredningsmeldingen. Å angi riktig stadium er en viktig del av diagnostisering av lymfom. Dette sier noe om hvor utbredt sykdommen er. Høy grad av måloppnåelse for denne kvalitetsindikatoren er 90 prosent eller mer. Målet er nådd med god margin. Resultatet gjelder hele helseforetaket. </t>
+  </si>
+  <si>
+    <t>Flowcytometrisk immunfenotyping er en metode for måling av fysiske og kjemiske egenskaper til enkeltceller eller partikler i væskestrøm, og immunfenotyping av lymfocytter er den anbefalte diagnostiske metoden ved mistanke om kronisk lymfatisk leukemi. Figuren viser andelen av pasienter diagnostisert med kronisk lymfatisk leukemi som har fått diagnosen påvist ved hjelp av flowcytometri fordelt på helseforetak. Høy grad av måloppnåelse for denne kvalitetsindikatoren er 90 prosent eller mer. Resultatet gjelder hele helseforetaket.</t>
+  </si>
+  <si>
+    <t>Figuren viser andelen pasienter diagnostisert med myelomatose i 2019 som er diagnostisert ved hjelp av biopsi (vevsprøve). Resultatet gjelder hele helseforetaket. Praksisen er noe spredt ved de ulike helseforetakene. Biopsi gir sikrere registrering via patologene, sikrere klassifisering ved vanskelig morfologi eller lymfoblastisk fenotype, sikrere tallfesting av plasmacelleandel og vil hos enkelte pasienter gi tidligere behandling. Revidert handlingsprogram for maligne blodsykdommer har endret anbefaling til å benytte seg av biopsi og utstryk, ikke enten/eller.</t>
+  </si>
+  <si>
+    <t>Figuren viser andelen pasienter diagnostisert med myelomatose i 2019 som er diagnostisert ved hjelp av en FISH-analyse. FISH er forkortelse for Fluorescerens In-Situ Hybridisering og er en cytogenetisk teknikk for å detektere og lokalisere tilstedeværelse eller fravær av spesifikke DNA- sekvenser på kromosomer, altså endringer i cellenes molekylære struktur og funksjon. FISH skal være standardmetode for cytogenetisk undersøkelse ved diagnostisering av myelomatose.</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år som ble behandlet med blodpropp-løsende medisin eller utblokking ved mistanke om tett hjerteåre</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år som  i løpet av kort tid ble behandlet med blodpropp-løsende medisin eller utblokking  ved mistanke om tett hjerteåre</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år som  i løpet av kort tid ble behandlet med blodpropp-løsende medisin ved mistanke om tett hjerteåre</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år som i løpet av kort tid ble behandlet med utblokking (PCI)  ved mistanke om tett hjerteåre</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år med mindre EKG-forandringer som ble undersøkt med røntgen av hjertets blodårer i løpet av behandlingsforløpet</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år med mindre EKG-forandringer som ble undersøkt med røntgen av hjertets blodårer innen 72 timer etter innleggelse</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år som behandles med to medikament for å forebygge ny blodpropp etter hjerteinfarktet</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år som behandles med kolesterolsenkende medisin etter hjerteinfarktet</t>
+  </si>
+  <si>
+    <t>Undersøkelse av hjertets pumpefunksjon med ultralyd</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år som fikk anbefalt  medisin (betablokker) for å stabilisere hjerterytmen</t>
+  </si>
+  <si>
+    <t>Pasienter under 85 år med hjertesvikt eller sukkersyke som fikk anbefalt medisin (ACE/AII hemmer)</t>
+  </si>
+  <si>
+    <t>Hvor stor andel av pasienter med hjerteinfarkt som sykehuset meldte til  Norsk hjerteinfarktregister</t>
+  </si>
+  <si>
+    <t>Denne kvalitetsindikatoren er definert som andel pasienter under 85 år som ble behandlet med blodproppløsende medikament eller utblokking ved alvorlig hjerteinfarkt (STEMI). De europeiske retningslinjene som Norsk cardiologisk selskap har sluttet_x000D_
+seg til, anbefaler at pasienter med ST-elevasjonsinfarkt (STEMI) og med &lt;12 timer fra symptomdebut_x000D_
+til første medisinske kontakt (FMK) blir behandlet med trombolyse og/eller koronar angiografi/PCI i_x000D_
+sykdomsforløpet. Hos noen pasienter vil det være medisinsk korrekt å fravike anbefalingene. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>Kvalitetsindikatoren er definert som andel av pasienter under 85 år som innen anbefalt tid ble behandlet med blodproppløsende medikament eller utblokking ved mistanke om tett hjerteåre og alvorlig hjerteinfarkt (STEMI). Andel pasienter under 85 år innlagt med STelevasjonsinfarkt (STEMI) og med &lt;12 timer fra symptomdebut til første medisinske kontakt som ble_x000D_
+behandlet med trombolyse innen 30 minutter eller koronar angiografi/PCI innen 120 minutter etter_x000D_
+første medisinske kontakt. Ved STEMI skal den tette blodåren åpnes så raskt som overhode mulig._x000D_
+Dette vil gi redusert myokardskade og redusert risiko for hjertesvikt og død. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kvalitetsindikatoren er definert som andel pasienter under 85 år med STEMI som fikk trombolyse_x000D_
+innen 30 minutter av de som ble behandlet med trombolyse som initial reperfusjonsmetode. De europeiske retningslinjene som Norsk cardiologisk selskap har sluttet_x000D_
+seg til, anbefaler at pasienter som har alvorlig hjerteinfarkt med tett hjerteåre får blodproppløsende_x000D_
+medikament innen 30 minutter hvis pasienten ikke kan behandles med utblokking (PCI) innen 120_x000D_
+minutter. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andel pasienter under 85 år med STEMI og &lt;12 timer fra symptomdebut til første_x000D_
+medisinske kontakt som fikk primær PCI innen 120 minutter etter første medisinske kontakt. Primær_x000D_
+PCI er definert som angiografi eller PCI som initial metode for å oppnå reperfusjon når angiografi_x000D_
+eller PCI ble utført innen 12 timer etter første medisinske kontakt og det ikke var gitt trombolyse på_x000D_
+forhånd. De europeiske retningslinjene som Norsk cardiologisk selskap har sluttet_x000D_
+seg til, anbefaler at pasienter som har alvorlig hjerteinfarkt med tett hjerteåre får behandling med_x000D_
+utblokking (PCI) innen 120 minutter. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>Kvalitetsindikatoren er definert som andel av pasienter under 85 med mindre EKG-forandringer som ble_x000D_
+undersøkt med røntgen av hjertets blodårer i løpet av behandlingskjeden. De europeiske retningslinjene som Norsk cardiologisk selskap har sluttet_x000D_
+seg til, anbefaler at pasienter med NSTEMI som hovedregel utredes invasivt med koronar angiografi_x000D_
+under sykehusoppholdet. Ved invasiv utredning kartlegges sykdomsutbredelse. Dette er av betydning_x000D_
+for risikostratifisering og planlegging av behandlingen. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>Kvalitetsindikatoren er definert som andel pasienter under 85 år med mindre EKG-forandringer som ble_x000D_
+undersøkt med røntgen av hjertets blodårer innen 72 timer etter innleggelse. Europeiske retningslinjer anbefaler at pasienter med NSTEMI som_x000D_
+hovedregel gjennomgår invasiv utredning innen 24 timer etter innleggelse. Praksis varierer i Norge._x000D_
+Fagrådet for Norsk hjerteinfarktregister har vurdert foreliggende data og funnet at det ikke foreligger_x000D_
+god dokumentasjon for at pasienter med NSTEMI som hovedregel bør utredes innen 24 timer._x000D_
+Fagrådet har derfor valgt å opprettholde utredning innen 72 timer etter innleggelse som nasjonal_x000D_
+kvalitetsindikator. Det understrekes at pasientene må risikostratifiseres, og at pasienter med høy_x000D_
+risiko må utredes raskt og noen umiddelbart (innen 2 timer). Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>Kvalitetsindikatoren er definert som andel av pasienter under 85 år som behandles med to platehemmende medikament eller et platehemmende medikament og et antikoagulasjonsbehandlende medikament etter hjerteinfarktet. Antitrombotisk behandling gir prognostisk gevinst. De europeiske_x000D_
+retningslinjene som Norsk cardiologisk selskap har sluttet seg til, anbefaler at pasientene som_x000D_
+hovedregel behandles i 12 måneder med to medikament for å hindre blodpropp etter_x000D_
+hjerteinfarktet. Hos noen pasienter vil det være medisinsk korrekt å fravike anbefalingene. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kvalitetsindikatoren er definert som andel pasienter under 85 år som behandles med_x000D_
+kolesterolsenkende medikament etter hjerteinfarktet. Kolesterolsenkende behandling gir prognostisk gevinst. De europeiske_x000D_
+retningslinjene som Norsk cardiologisk selskap har sluttet seg til, anbefaler at pasientene som_x000D_
+hovedregel behandles med lipidsenkende medikament på ubestemt tid. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>Kvalitetsindikatoren er definert som andel pasienter som undersøkes med måling av hjertets_x000D_
+pumpefunksjon. De europeiske retningslinjene som Norsk cardiologisk selskap har sluttet_x000D_
+seg til, anbefaler at ejeksjonsfraksjon (hjertets pumpefunksjon) som hovedregel blir beskrevet og_x000D_
+målt under sykdomsforløpet. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>Kvalitetsindikatoren er definert som andel pasienter under 85 år som fikk anbefalt betablokker_x000D_
+medikament hvis det var indikasjon for betablokker. De europeiske retningslinjene som Norsk cardiologisk selskap har sluttet_x000D_
+seg til, anbefaler at pasientene med EF &lt;40 %, eller som hadde hjertesvikt i tidligere sykehistorie eller_x000D_
+som fikk hjertesvikt i behandlingskjeden som hovedregel bør behandles med betablokker. Hos noen_x000D_
+pasienter vil det være medisinsk korrekt å fravike anbefalingene. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>Kvalitetsindikatoren er definert som andel pasienter under 85 år med hjertesvikt eller sukkersyke som_x000D_
+fikk medikament ACE-hemmer eller AII-antagonist. De europeiske retningslinjene som Norsk cardiologisk selskap har sluttet_x000D_
+seg til, anbefaler at pasientene med EF &lt;40 %, eller som har hjertesvikt i tidligere sykehistorie, eller_x000D_
+som fikk hjertesvikt som komplikasjon i behandlingskjeden, eller som har sukkersyke, som_x000D_
+hovedregel behandles med ACE-hemmer/AII-antagonist. Hos noen pasienter vil det være medisinsk_x000D_
+korrekt å fravike anbefalingene. Høyt målnivå er ønskelig.</t>
+  </si>
+  <si>
+    <t>God dekningsgrad er en forutsetning for å vurdere kvaliteten på_x000D_
+hjerteinfarktbehandlingen ved det enkelte sykehus. Ved registrering må sykehusene rapportere_x000D_
+hvem de behandler, hvordan de behandler og hva som oppnås ved behandlingen. På den måten blir_x000D_
+registrering av alle hjerteinfarkt ved et sykehus et nødvendig og viktig verktøy for kvalitetsforbedring,_x000D_
+og en forutsetning for å kunne bedømme alle de andre kvalitetsindikatorene.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1360,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1432,56 +1709,58 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Merknad" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Nøytral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Tittel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totalt" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Varseltekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1759,26 +2038,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="199.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="199.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1836,7 +2115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1856,7 +2135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1885,7 +2164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1914,7 +2193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +2222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1972,7 +2251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2001,7 +2280,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -2030,7 +2309,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -2059,7 +2338,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -2088,7 +2367,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -2117,7 +2396,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -2146,7 +2425,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -2175,7 +2454,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -2204,7 +2483,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -2233,7 +2512,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>236</v>
       </c>
@@ -2262,7 +2541,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>241</v>
       </c>
@@ -2291,7 +2570,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>244</v>
       </c>
@@ -2320,7 +2599,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -2349,7 +2628,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>254</v>
       </c>
@@ -2378,7 +2657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>183</v>
       </c>
@@ -2407,7 +2686,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -2436,7 +2715,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -2462,7 +2741,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>193</v>
       </c>
@@ -2488,7 +2767,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -2514,7 +2793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -2540,7 +2819,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -2569,7 +2848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>207</v>
       </c>
@@ -2598,7 +2877,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>210</v>
       </c>
@@ -2627,7 +2906,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2656,7 +2935,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2685,7 +2964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2714,7 +2993,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -2743,7 +3022,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -2772,7 +3051,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2801,7 +3080,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -2830,7 +3109,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -2859,7 +3138,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2888,7 +3167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -2917,7 +3196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -2946,7 +3225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -2975,7 +3254,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -3004,7 +3283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -3033,7 +3312,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -3062,7 +3341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -3091,7 +3370,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -3120,7 +3399,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -3149,7 +3428,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3178,7 +3457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -3207,7 +3486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3236,7 +3515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -3265,7 +3544,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3294,7 +3573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3323,7 +3602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3352,7 +3631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3381,7 +3660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3410,7 +3689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>259</v>
       </c>
@@ -3439,7 +3718,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>260</v>
       </c>
@@ -3468,7 +3747,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -3497,7 +3776,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>262</v>
       </c>
@@ -3526,7 +3805,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>263</v>
       </c>
@@ -3555,7 +3834,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -3584,7 +3863,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>265</v>
       </c>
@@ -3613,7 +3892,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -3642,7 +3921,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>267</v>
       </c>
@@ -3671,7 +3950,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3700,7 +3979,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>269</v>
       </c>
@@ -3727,6 +4006,528 @@
       </c>
       <c r="I68" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" t="s">
+        <v>301</v>
+      </c>
+      <c r="E69">
+        <v>0.8</v>
+      </c>
+      <c r="F69">
+        <v>0.6</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>339</v>
+      </c>
+      <c r="I69" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" t="s">
+        <v>302</v>
+      </c>
+      <c r="E70">
+        <v>0.95</v>
+      </c>
+      <c r="F70">
+        <v>0.9</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>340</v>
+      </c>
+      <c r="I70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71">
+        <v>0.9</v>
+      </c>
+      <c r="F71">
+        <v>0.8</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>341</v>
+      </c>
+      <c r="I71" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72">
+        <v>0.9</v>
+      </c>
+      <c r="F72">
+        <v>0.8</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>342</v>
+      </c>
+      <c r="I72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73">
+        <v>0.9</v>
+      </c>
+      <c r="F73">
+        <v>0.8</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>343</v>
+      </c>
+      <c r="I73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74" t="s">
+        <v>313</v>
+      </c>
+      <c r="D74" t="s">
+        <v>306</v>
+      </c>
+      <c r="E74">
+        <v>0.85</v>
+      </c>
+      <c r="F74">
+        <v>0.7</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>344</v>
+      </c>
+      <c r="I74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" t="s">
+        <v>338</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" t="s">
+        <v>338</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B83" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" t="s">
+        <v>338</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Indikatorbeskrivelser.xlsx
+++ b/data-raw/Indikatorbeskrivelser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\repo\qmongrdata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8969A-BB45-471B-AE3D-A423A04E1391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1893ADD-008C-461E-8C53-5E6E183D1320}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="442">
   <si>
     <t>IndID</t>
   </si>
@@ -1220,6 +1220,227 @@
 hvem de behandler, hvordan de behandler og hva som oppnås ved behandlingen. På den måten blir_x000D_
 registrering av alle hjerteinfarkt ved et sykehus et nødvendig og viktig verktøy for kvalitetsforbedring,_x000D_
 og en forutsetning for å kunne bedømme alle de andre kvalitetsindikatorene.</t>
+  </si>
+  <si>
+    <t>hjinfb</t>
+  </si>
+  <si>
+    <t>hjinfc</t>
+  </si>
+  <si>
+    <t>hjinfc1</t>
+  </si>
+  <si>
+    <t>hjinfc2</t>
+  </si>
+  <si>
+    <t>hjinfd</t>
+  </si>
+  <si>
+    <t>hjinfe</t>
+  </si>
+  <si>
+    <t>hjinff</t>
+  </si>
+  <si>
+    <t>hjinfg</t>
+  </si>
+  <si>
+    <t>hjinfh</t>
+  </si>
+  <si>
+    <t>hjinfj</t>
+  </si>
+  <si>
+    <t>hjinfk</t>
+  </si>
+  <si>
+    <t>hjinfa</t>
+  </si>
+  <si>
+    <t>norkar</t>
+  </si>
+  <si>
+    <t>norkara</t>
+  </si>
+  <si>
+    <t>norkarb</t>
+  </si>
+  <si>
+    <t>norkarc</t>
+  </si>
+  <si>
+    <t>norkard</t>
+  </si>
+  <si>
+    <t>norkare</t>
+  </si>
+  <si>
+    <t>norkarf</t>
+  </si>
+  <si>
+    <t>norkari</t>
+  </si>
+  <si>
+    <t>norkarh</t>
+  </si>
+  <si>
+    <t>norkarj</t>
+  </si>
+  <si>
+    <t>norkark</t>
+  </si>
+  <si>
+    <t>norkardga</t>
+  </si>
+  <si>
+    <t>Dekningsgrad - utposning på hovedpulsåren</t>
+  </si>
+  <si>
+    <t>Dekningsgrad -forsnevring av halspulsåren</t>
+  </si>
+  <si>
+    <t>Dekningsgrad - forsnevring av pulsårer i beina</t>
+  </si>
+  <si>
+    <t>Dødelighet etter utposning på hovedpulsåren</t>
+  </si>
+  <si>
+    <t>Dødelighet etter utposning på hovedpulsåren - åpen</t>
+  </si>
+  <si>
+    <t>Dødelighet etter utposning på hovedpulsåren - EVAR</t>
+  </si>
+  <si>
+    <t>Anbefalt medikamentbehandling etter utposning på hovedpulsåren</t>
+  </si>
+  <si>
+    <t>Behandlet innen 14 dager for forsnevring av halspulsåren</t>
+  </si>
+  <si>
+    <t>Anbefalt medikamentbehandling  etter forsnevring av halspulsåren</t>
+  </si>
+  <si>
+    <t>Anbefalt medikamentbehandling   etter forsnevring av pulsårer i beina</t>
+  </si>
+  <si>
+    <t>Aktualitet</t>
+  </si>
+  <si>
+    <t>ki_A</t>
+  </si>
+  <si>
+    <t>ki_B</t>
+  </si>
+  <si>
+    <t>ki_C</t>
+  </si>
+  <si>
+    <t>ki_D</t>
+  </si>
+  <si>
+    <t>ki_E</t>
+  </si>
+  <si>
+    <t>ki_F</t>
+  </si>
+  <si>
+    <t>ki_I</t>
+  </si>
+  <si>
+    <t>ki_H</t>
+  </si>
+  <si>
+    <t>ki_J</t>
+  </si>
+  <si>
+    <t>ki_K</t>
+  </si>
+  <si>
+    <t>ki_DGA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Andel pasienter med utposning på hovedpulsåren som er registrert i NORKAR og som også er registrert i Basisregisteret(HKR)/ Norsk pasientregister.</t>
+  </si>
+  <si>
+    <t>Andel pasienter med forsnevring av halspulsåren (carotisstenose) som er registrert i NORKAR og som også er registrert i Basisregisteret (HKR)/ Norsk pasientregister.</t>
+  </si>
+  <si>
+    <t>Andel pasienter med forsnevring av pulsårer i beina (til underekstremitetene) som er registrert i NORKAR og som også er registrert i Basisregisteret(HKR)/ Norskpasientregister.</t>
+  </si>
+  <si>
+    <t>Andel pasienter med utposning på hovedpulsåren (AAA) som dør innen 30 dager. Utposningen er intakt.</t>
+  </si>
+  <si>
+    <t>Andel pasienter med utposning på hovedpulsåren (AAA) som dør innen 30 dager. Utposningen er intakt og behandlingen er utført som en åpen operasjon.</t>
+  </si>
+  <si>
+    <t>Andel pasienter med utposning på hovedpulsåren (AAA) som dør innen 30 dager. Utposningen er intakt og behandlingen er endovaskulær.</t>
+  </si>
+  <si>
+    <t>Etter behandling for utposning på hovedpulsåren bør det startes medikamentell behandling for å forebygge komplikasjoner som hjerneslag eller hjerteinfarkt.</t>
+  </si>
+  <si>
+    <t>Andel pasienter med for forsnevring av halspulsåren (carotisstenose) som mottar behandling for denne tilstanden innen 14 dager.</t>
+  </si>
+  <si>
+    <t>Etter behandling for forsnevring av halspulsåren (carotisstenose) bør det startes medikamentell behandling for å forebygge komplikasjoner som hjerneslag eller hjerteinfarkt.</t>
+  </si>
+  <si>
+    <t>Antall dager fra utskrivelse til ferdigstilt skjema</t>
+  </si>
+  <si>
+    <t>Denne kvalitetsindikatoren er definert som andel pasienter med utposning på hovedpulsåren som er registrert i NORKAR og som også er registrert i Basisregisteret(HKR)/ Norskpasientregister. _x000D_
+_x000D_
+Det blir benyttet et sett med kvalifiserende prosedyre og diagnosekoder i beregning av dekningsgrad. Det vil derfor kunne være avvik mellom antall registreringer i NORKAR og antall episoder i dekningsgradsanalysen. Se Årsrapport for mer inngående om prosedyrer.</t>
+  </si>
+  <si>
+    <t>Denne kvalitetsindikatoren er definert som andel pasienter med forsnevring av halspulsåren (carotisstenose) som er registrert i NORKAR og som også er registrert i Basisregisteret(HKR)/ Norskpasientregister. _x000D_
+_x000D_
+Det blir benyttet et sett med kvalifiserende prosedyre og diagnosekoder i beregning av dekningsgrad. Det vil derfor kunne være avvik mellom antall registreringer i NORKAR og antall episoder i dekningsgradsanalysen. Se Årsrapport for mer inngående om prosedyrer.</t>
+  </si>
+  <si>
+    <t>Denne kvalitetsindikatoren er definert som andel pasienter med forsnevring av av pulsårer i beina (til underekstremitetene) som er registrert i NORKAR og som også er registrert i Basisregisteret(HKR)/ Norskpasientregister. _x000D_
+_x000D_
+Det blir benyttet et sett med kvalifiserende prosedyre og diagnosekoder i beregning av dekningsgrad. Det vil derfor kunne være avvik mellom antall registreringer i NORKAR og antall episoder i dekningsgradsanalysen. Se Årsrapport for mer inngående om prosedyrer.</t>
+  </si>
+  <si>
+    <t>Dødsfall etter behandling er en komplikasjon som er og skal være sjelden, men ved alle kirurgiske inngrep har man en viss fare for komplikasjoner. Denne indikatoren er definert som andel pasienter med utposning på hovedpulsåren (AAA) der utposningen er intakt og har fått gjennomført en operasjon som dør innen 30 dager.  Dødsfall er hentet fra Folkeregisteret. _x000D_
+_x000D_
+Tolk resultatene med varsomhet. Det er svært få hendelser som ligger til grunn for tallene, noe som medfører en høy grad av tilfeldig variasjon, slik at et behandlingssted som har høy dødelighet blant pasientene ikke nødvendigvis har dårlig behandlingskvalitet. Tall for hele landet tyder på at behandlingen av pasienter med utposning på hovedpulsåren i Norge er av høy kvalitet. Måloppnåelse er ikke definert.</t>
+  </si>
+  <si>
+    <t>Dødsfall etter behandling er en komplikasjon som er og skal være sjelden, men ved alle kirurgiske inngrep har man en viss fare for komplikasjoner. Denne kvalitetsindikatoren er definert som andel pasienter med utposning på hovedpulsåren (AAA) der utposningen er intakt og har fått gjennomført en åpen operasjon som dør innen 30 dager.  Lavt målnivå er ønskelig. Dødsfall er hentet fra Folkeregisteret. _x000D_
+_x000D_
+Tolk resultatene med varsomhet. Det er svært få hendelser som ligger til grunn for tallene, noe som medfører en høy grad av tilfeldig variasjon, slik at et behandlingssted som har høy dødelighet blant pasientene ikke nødvendigvis har dårlig behandlingskvalitet. Tall for hele landet tyder på at behandlingen av pasienter med utposning på hovedpulsåren i Norge er av høy kvalitet.</t>
+  </si>
+  <si>
+    <t>Dødsfall etter behandling er en komplikasjon som er og skal være sjelden, men ved alle kirurgiske inngrep har man en viss fare for komplikasjoner. Denne kvalitetsindikatoren er definert som andel pasienter med utposning på hovedpulsåren (AAA) der utposningen er intakt og behandlingen er endovaskulær og som dør innen 30 dager.  Dødsfall er hentet fra Folkeregisteret. _x000D_
+_x000D_
+Tolk resultatene med varsomhet. Det er svært få hendelser som ligger til grunn for tallene, noe som medfører en høy grad av tilfeldig variasjon, slik at et behandlingssted som har høy dødelighet blant pasientene ikke nødvendigvis har dårlig behandlingskvalitet. Tall for hele landet tyder på at behandlingen av pasienter med utposning på hovedpulsåren i Norge er av høy kvalitet.</t>
+  </si>
+  <si>
+    <t>Etter behandling for utposning på hovedpulsåren bør det startes medikamentell behandling for å forebygge komplikasjoner som hjerneslag eller hjerteinfarkt. Nasjonale og internasjonale retningslinjer beskriver viktigheten av denne type behandling for karkirurgiske pasienter. _x000D_
+_x000D_
+Kvalitetsindikatoren er definert som andel pasienter mottar resept på kolesterolsenkende medikamenter og platehemmer, eller antikoagulasjon. En årsak til dårlig måloppnåelse er at det blir registrert ukjent medikamentbruk ved utskrivelse. Dvs at det i NORKAR ikke blir registrert type medikamenter pasienten benytter ved utskrivelse.</t>
+  </si>
+  <si>
+    <t>Denne kvalitetsindikatoren er definert som andel pasienter med for forsnevring av halspulsåren (carotisstenose) som mottar behandling for denne tilstanden innen 14 dager etter symptomer. De som har hatt symptomer på hjerneslag, bør undersøkes av lege så snart som mulig etter hendelsen. Målet om rask identifisering og behandling av pasienter med cerebrovaskulære hendelser stiller store krav til logistikken ved sykehusene. _x000D_
+_x000D_
+Flere faktorer utenfor karkirurgens innflytelse påvirker indikatoren, som for eksempel tid til kontakt med lege og tid til henvisning til spesialist, slik at indikatoren sier noe om helseforetaket klarer å behandle pasienter med symptomatiske stenoser innenfor anbefalt tid. En må også være klar over at det finnes situasjoner hvor retningslinjene anbefaler å vente mer enn 14 dager, for eksempel etter store slag eller ved betydelig utfall, slik at verdien skal ikke være 100 %.</t>
+  </si>
+  <si>
+    <t>Etter behandling for forsnevring av halspulsåren bør det startes medikamentell behandling for å forebygge komplikasjoner som hjerneslag eller hjerteinfarkt. Nasjonale og internasjonale retningslinjer beskriver viktigheten av denne type behandling for karkirurgiske pasienter. _x000D_
+_x000D_
+Kvalitetsindikatoren er definert som andel pasienter mottar resept på kolesterolsenkende medikamenter og platehemmer, eller antikoagulasjon. En årsak til dårlig måloppnåelse er sannsynligvis at det blir registrert ukjent medikamentbruk ved utskrivelse. Dvs at det i NORKAR ikke blir registrert type medikamenter pasienten benytter ved utskrivelse.</t>
+  </si>
+  <si>
+    <t>Etter behandling for forsnevring av pulsårer i beina bør det startes medikamentell behandling for å forebygge komplikasjoner som hjerneslag eller hjerteinfarkt. Nasjonale og internasjonale retningslinjer beskriver viktigheten av denne type behandling for karkirurgiske pasienter. _x000D_
+_x000D_
+Kvalitetsindikatoren er definert som andel pasienter mottar resept på kolesterolsenkende medikamenter og platehemmer, eller antikoagulasjon. En årsak til dårlig måloppnåelse er sannsynligvis at det blir registrert ukjent medikamentbruk ved utskrivelse. Dvs at det i NORKAR ikke blir registrer type medikamenter pasienten benytter ved utskrivelse.</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,7 +4405,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s">
         <v>338</v>
@@ -4213,7 +4434,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="B76" t="s">
         <v>338</v>
@@ -4242,7 +4463,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="B77" t="s">
         <v>338</v>
@@ -4271,7 +4492,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="B78" t="s">
         <v>338</v>
@@ -4300,7 +4521,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="B79" t="s">
         <v>338</v>
@@ -4329,7 +4550,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s">
         <v>338</v>
@@ -4358,7 +4579,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s">
         <v>338</v>
@@ -4387,7 +4608,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="B82" t="s">
         <v>338</v>
@@ -4416,7 +4637,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="B83" t="s">
         <v>338</v>
@@ -4445,7 +4666,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="B84" t="s">
         <v>338</v>
@@ -4474,7 +4695,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="B85" t="s">
         <v>338</v>
@@ -4503,7 +4724,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="B86" t="s">
         <v>338</v>
@@ -4528,6 +4749,325 @@
       </c>
       <c r="I86" s="3" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" t="s">
+        <v>387</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B88" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B89" t="s">
+        <v>387</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B90" t="s">
+        <v>387</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B91" t="s">
+        <v>387</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="F91" s="3">
+        <v>4.99E-2</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" t="s">
+        <v>387</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E92" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B93" t="s">
+        <v>387</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B95" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" t="s">
+        <v>387</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B97" t="s">
+        <v>387</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
